--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_sp.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_sp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384F89D-4755-8A46-A55F-AC965AF61ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8296A1A2-AC84-3242-A819-34D6AD19593A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4202,8 +4202,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:D646"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A647" sqref="A647:T668"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="A647" sqref="A647:D663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
